--- a/biology/Botanique/Navicula_directa/Navicula_directa.xlsx
+++ b/biology/Botanique/Navicula_directa/Navicula_directa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Navicula directa[2] est une espèce de diatomées pennées marines de la famille des Naviculaceae, dont la cellule mesure environ 50 μm de long sur 10 μm de large et 10 μm de haut. Le frustule, transparent, difficilement visible in vivo, s'observe dans de bonnes conditions après élimination de la matière vivante et montage dans des résines spéciales. Possédant une forme de bateau[3], son contour est allongé, lancéolé de face, rectangulaire de profil et toute sa surface est ornée de côtes perlées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Navicula directa est une espèce de diatomées pennées marines de la famille des Naviculaceae, dont la cellule mesure environ 50 μm de long sur 10 μm de large et 10 μm de haut. Le frustule, transparent, difficilement visible in vivo, s'observe dans de bonnes conditions après élimination de la matière vivante et montage dans des résines spéciales. Possédant une forme de bateau, son contour est allongé, lancéolé de face, rectangulaire de profil et toute sa surface est ornée de côtes perlées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Cycle de développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les diatomées marines de l’espèce Navicula directa se reproduisent par auxosporulation[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diatomées marines de l’espèce Navicula directa se reproduisent par auxosporulation.
 Deux gamètes ne se réarrangent pas dans leur gamétocyste et chacun adhère aux surfaces internes de la thèque du gamétocyste. Chacun des deux gamètes d'un gamétocyste fusionne avec un gamète de l'autre gamétocyste par isogamie. En conséquence, deux zygotes – et donc deux auxospores (en) – sont produits par gamétocystes appariés. Comme les thèques des gamétocystes sont restées proches des gamètes pendant la fusion, le zygote s'est associé à deux thèques différentes.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Navicula directa a pour synonymes selon AlgaeBase                                           (4 mars 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Navicula directa a pour synonymes selon AlgaeBase                                           (4 mars 2021) :
 synonymes homotypiques :
 Pinnularia directa W.Smith 1853 (basionyme)
 Schizonema directum (W.Smith) Kuntze 1898
@@ -578,14 +594,86 @@
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (10 mars 2021)[5] :
-Sous-espèces
-Navicula directa subsp. directa
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 mars 2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Navicula_directa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Navicula_directa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Navicula directa subsp. directa
 Navicula directa subsp. javanica Cleve
-Navicula directa subsp. remota Grunow
-Variétés
+Navicula directa subsp. remota Grunow</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Navicula_directa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Navicula_directa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Navicula directa var. angusta Grunow, 1880
 Navicula directa var. constricta Heiden, 1928
 Navicula directa var. cuneata Østrup, 1895
@@ -602,8 +690,43 @@
 Navicula directa var. remota Cleve
 Navicula directa var. remota Grunow, 1879
 Navicula directa var. rostrata Heiden, 1928
-Formes
-Navicula directa f. alpha Manguin, 1960
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Navicula_directa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Navicula_directa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Navicula directa f. alpha Manguin, 1960
 Navicula directa f. beta Manguin, 1960
 Navicula directa f. directa (W.Smith) Ralfs, 1861
 Navicula directa f. gamma Manguin, 1960</t>
